--- a/biology/Médecine/Maladies_de_surcharge_en_acide_sialique_libre/Maladies_de_surcharge_en_acide_sialique_libre.xlsx
+++ b/biology/Médecine/Maladies_de_surcharge_en_acide_sialique_libre/Maladies_de_surcharge_en_acide_sialique_libre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les maladies de surcharge en acide sialique libre, maladie de Salla, la forme intermédiaire de la maladie de Salla et la forme infantile de la maladie de surcharge en acide sialique libre sont des maladies neurodégénératives par surcharge lysosomale en acide sialique.
@@ -514,10 +526,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:269920 [1]
-(en) Robert Kleta, William A Gahl, Free Sialic Acid Storage Disorders In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. [2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:269920 
+(en) Robert Kleta, William A Gahl, Free Sialic Acid Storage Disorders In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. .</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Associations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Maladie de Salla Association Vaincre les Maladies Lysosomales
  Portail de la médecine                     </t>
